--- a/Docs/Data.xlsx
+++ b/Docs/Data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredrik\Desktop\kod\Github\iterbokslut\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berfre\Desktop\kod\iterbokslut\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616E2AB8-B0AD-402D-8452-FD3CD24DB8C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DFAB651-F8F1-4489-86A1-221449153536}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>FINANSIÄR</t>
   </si>
@@ -64,12 +63,21 @@
   </si>
   <si>
     <t>arne</t>
+  </si>
+  <si>
+    <t>marie cure 1</t>
+  </si>
+  <si>
+    <t>marie cure 2</t>
+  </si>
+  <si>
+    <t>jaj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,11 +436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6491FC-0F15-4868-9467-75FE89C5470C}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +451,7 @@
     <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +464,20 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1">
+        <v>545</v>
+      </c>
+      <c r="G1">
+        <v>465465</v>
+      </c>
+      <c r="H1">
+        <v>465</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -470,8 +490,20 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -485,9 +517,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
